--- a/biology/Médecine/Lufénurone/Lufénurone.xlsx
+++ b/biology/Médecine/Lufénurone/Lufénurone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luf%C3%A9nurone</t>
+          <t>Lufénurone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La lufénurone (DCI) est un composé qui appartient à la famille des benzoylurées. La substance active lufénurone du médicament vétérinaire appartient au groupe des inhibiteurs du développement des insectes (IDI). Elle inhibe la synthèse de la chitine et est utilisée pour détruire les larves d'insectes et certains champignons.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luf%C3%A9nurone</t>
+          <t>Lufénurone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine vétérinaire, elle est utilisée essentiellement contre les puces chez le chien et le chat, et, en association avec d'autres molécules, comme antiparasitaire à large spectre. Elle s'est également avérée être efficace contre les dermatophytes. Elle se présente sous la forme d'un solide incolore cristallisé très lipophile possédant un centre stéréogène, mais c'est le racémique qui est utilisé dans les formulations commerciales. Il en existe quatre formes distinctes :
 une forme A, thermodynamiquement stable, qui fond à 175 °C avec une enthalpie de fusion de 33,3 kJ/mol ;
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luf%C3%A9nurone</t>
+          <t>Lufénurone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'excipient polyvinylpyrrolidone (povidone) du médicament Program (Novartis) provoque chez le chien une puissante libération d'histamine qui peut entraîner une réaction grave[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'excipient polyvinylpyrrolidone (povidone) du médicament Program (Novartis) provoque chez le chien une puissante libération d'histamine qui peut entraîner une réaction grave.
 </t>
         </is>
       </c>
